--- a/Excel/Card.xlsx
+++ b/Excel/Card.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>avatarName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>star</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,14 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星际</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,6 +80,18 @@
   </si>
   <si>
     <t>Villager_B_Boy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A4" sqref="A4:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -490,19 +490,19 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -542,19 +542,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -562,11 +562,11 @@
         <v>100001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -578,7 +578,199 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>100002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>100003</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>100004</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>100005</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>100006</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>100007</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>100008</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>100009</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Card.xlsx
+++ b/Excel/Card.xlsx
@@ -13,8 +13,47 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+SSR = 4, "SSR",--全称为superior super rare，特级超稀有。一般为集换式卡牌游戏最高稀有等级。
+SR = 3, "SR",  --Super Rare 超稀有（一般低于）
+R = 2, "R",    --Rare稀有（一般作为协战点/友情/助战点能抽到的稀有度上限）
+N = 1, "N",    --Normal普通（最常见最容易到手的稀有度级别</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="72">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,19 +87,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>稀有度</t>
+  </si>
+  <si>
+    <t>Villager_B_Boy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄2</t>
+  </si>
+  <si>
+    <t>英雄3</t>
+  </si>
+  <si>
+    <t>英雄4</t>
+  </si>
+  <si>
+    <t>英雄5</t>
+  </si>
+  <si>
+    <t>英雄6</t>
+  </si>
+  <si>
+    <t>英雄7</t>
+  </si>
+  <si>
+    <t>英雄8</t>
+  </si>
+  <si>
+    <t>英雄9</t>
+  </si>
+  <si>
     <t>star</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>村民</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rarityLabel</t>
+    <t>初始Rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始星级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -68,30 +154,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>稀有度标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有度</t>
-  </si>
-  <si>
-    <t>SR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Villager_B_Boy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battleUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星级</t>
+    <t>英雄10</t>
+  </si>
+  <si>
+    <t>英雄11</t>
+  </si>
+  <si>
+    <t>英雄12</t>
+  </si>
+  <si>
+    <t>英雄13</t>
+  </si>
+  <si>
+    <t>英雄14</t>
+  </si>
+  <si>
+    <t>英雄15</t>
+  </si>
+  <si>
+    <t>英雄16</t>
+  </si>
+  <si>
+    <t>英雄17</t>
+  </si>
+  <si>
+    <t>英雄18</t>
+  </si>
+  <si>
+    <t>英雄19</t>
+  </si>
+  <si>
+    <t>英雄20</t>
+  </si>
+  <si>
+    <t>英雄21</t>
+  </si>
+  <si>
+    <t>英雄22</t>
+  </si>
+  <si>
+    <t>英雄23</t>
+  </si>
+  <si>
+    <t>英雄24</t>
+  </si>
+  <si>
+    <t>英雄25</t>
+  </si>
+  <si>
+    <t>英雄26</t>
+  </si>
+  <si>
+    <t>英雄27</t>
+  </si>
+  <si>
+    <t>英雄28</t>
+  </si>
+  <si>
+    <t>英雄29</t>
+  </si>
+  <si>
+    <t>英雄30</t>
+  </si>
+  <si>
+    <t>英雄31</t>
+  </si>
+  <si>
+    <t>英雄32</t>
+  </si>
+  <si>
+    <t>英雄33</t>
+  </si>
+  <si>
+    <t>英雄34</t>
+  </si>
+  <si>
+    <t>英雄35</t>
+  </si>
+  <si>
+    <t>英雄36</t>
+  </si>
+  <si>
+    <t>英雄37</t>
+  </si>
+  <si>
+    <t>英雄38</t>
+  </si>
+  <si>
+    <t>英雄39</t>
+  </si>
+  <si>
+    <t>英雄40</t>
+  </si>
+  <si>
+    <t>英雄41</t>
+  </si>
+  <si>
+    <t>英雄42</t>
+  </si>
+  <si>
+    <t>英雄43</t>
+  </si>
+  <si>
+    <t>英雄44</t>
+  </si>
+  <si>
+    <t>英雄45</t>
+  </si>
+  <si>
+    <t>fragmentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragmentNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片道具id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成需要数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升星所需碎片数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:30:100:120:150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconUrl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +302,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +322,21 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -463,23 +681,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H12"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -490,22 +710,34 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -528,10 +760,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -542,34 +786,44 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>100001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -577,23 +831,31 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
+        <v>145</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>100002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -601,23 +863,31 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1">
+        <v>145</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>100003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -625,23 +895,31 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
+        <v>145</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>100004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -649,23 +927,31 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
+        <v>145</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>100005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -673,23 +959,31 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H8" s="1">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1">
+        <v>145</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>100006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -697,23 +991,31 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H9" s="1">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
+        <v>145</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>100007</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -721,23 +1023,31 @@
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1">
+        <v>145</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>100008</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -745,23 +1055,31 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1">
+        <v>145</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>100009</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -769,13 +1087,1174 @@
       <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1">
+        <v>145</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>100010</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <v>145</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>100011</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1">
+        <v>145</v>
+      </c>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>100012</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1">
+        <v>145</v>
+      </c>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>100013</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1">
+        <v>145</v>
+      </c>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>100014</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1">
+        <v>145</v>
+      </c>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>100015</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1">
+        <v>145</v>
+      </c>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>100016</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1">
+        <v>145</v>
+      </c>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>100017</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1">
+        <v>145</v>
+      </c>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>100018</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1">
+        <v>45</v>
+      </c>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>100019</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1">
+        <v>45</v>
+      </c>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>100020</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1">
+        <v>45</v>
+      </c>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>100021</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1">
+        <v>45</v>
+      </c>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>100022</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1">
+        <v>45</v>
+      </c>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>100023</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1">
+        <v>45</v>
+      </c>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>100024</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1">
+        <v>45</v>
+      </c>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>100025</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1">
+        <v>45</v>
+      </c>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>100026</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1">
+        <v>45</v>
+      </c>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>100027</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1">
+        <v>45</v>
+      </c>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>100028</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1">
+        <v>45</v>
+      </c>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>100029</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1">
+        <v>45</v>
+      </c>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>100030</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1">
+        <v>45</v>
+      </c>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>100031</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1">
         <v>15</v>
       </c>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>100032</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1">
+        <v>15</v>
+      </c>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>100033</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1">
+        <v>15</v>
+      </c>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>100034</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1">
+        <v>15</v>
+      </c>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>100035</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1">
+        <v>15</v>
+      </c>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>100036</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1">
+        <v>15</v>
+      </c>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>100037</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1">
+        <v>15</v>
+      </c>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>100038</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1">
+        <v>15</v>
+      </c>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>100039</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1">
+        <v>15</v>
+      </c>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>100040</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1">
+        <v>15</v>
+      </c>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>100041</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1">
+        <v>15</v>
+      </c>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>100042</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1">
+        <v>15</v>
+      </c>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>100043</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1">
+        <v>15</v>
+      </c>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>100044</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1">
+        <v>15</v>
+      </c>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>100045</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1">
+        <v>15</v>
+      </c>
+      <c r="L48" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/Card.xlsx
+++ b/Excel/Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2805" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="79">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,163 +138,191 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>初始等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始星级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄10</t>
+  </si>
+  <si>
+    <t>英雄11</t>
+  </si>
+  <si>
+    <t>英雄12</t>
+  </si>
+  <si>
+    <t>英雄13</t>
+  </si>
+  <si>
+    <t>英雄14</t>
+  </si>
+  <si>
+    <t>英雄15</t>
+  </si>
+  <si>
+    <t>英雄16</t>
+  </si>
+  <si>
+    <t>英雄17</t>
+  </si>
+  <si>
+    <t>英雄18</t>
+  </si>
+  <si>
+    <t>英雄19</t>
+  </si>
+  <si>
+    <t>英雄20</t>
+  </si>
+  <si>
+    <t>英雄21</t>
+  </si>
+  <si>
+    <t>英雄22</t>
+  </si>
+  <si>
+    <t>英雄23</t>
+  </si>
+  <si>
+    <t>英雄24</t>
+  </si>
+  <si>
+    <t>英雄25</t>
+  </si>
+  <si>
+    <t>英雄26</t>
+  </si>
+  <si>
+    <t>英雄27</t>
+  </si>
+  <si>
+    <t>英雄28</t>
+  </si>
+  <si>
+    <t>英雄29</t>
+  </si>
+  <si>
+    <t>英雄30</t>
+  </si>
+  <si>
+    <t>英雄31</t>
+  </si>
+  <si>
+    <t>英雄32</t>
+  </si>
+  <si>
+    <t>英雄33</t>
+  </si>
+  <si>
+    <t>英雄34</t>
+  </si>
+  <si>
+    <t>英雄35</t>
+  </si>
+  <si>
+    <t>英雄36</t>
+  </si>
+  <si>
+    <t>英雄37</t>
+  </si>
+  <si>
+    <t>英雄38</t>
+  </si>
+  <si>
+    <t>英雄39</t>
+  </si>
+  <si>
+    <t>英雄40</t>
+  </si>
+  <si>
+    <t>英雄41</t>
+  </si>
+  <si>
+    <t>英雄42</t>
+  </si>
+  <si>
+    <t>英雄43</t>
+  </si>
+  <si>
+    <t>英雄44</t>
+  </si>
+  <si>
+    <t>英雄45</t>
+  </si>
+  <si>
+    <t>fragmentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragmentNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片道具id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升星所需碎片数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:30:100:120:150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>rank</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初始等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始星级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rarity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄10</t>
-  </si>
-  <si>
-    <t>英雄11</t>
-  </si>
-  <si>
-    <t>英雄12</t>
-  </si>
-  <si>
-    <t>英雄13</t>
-  </si>
-  <si>
-    <t>英雄14</t>
-  </si>
-  <si>
-    <t>英雄15</t>
-  </si>
-  <si>
-    <t>英雄16</t>
-  </si>
-  <si>
-    <t>英雄17</t>
-  </si>
-  <si>
-    <t>英雄18</t>
-  </si>
-  <si>
-    <t>英雄19</t>
-  </si>
-  <si>
-    <t>英雄20</t>
-  </si>
-  <si>
-    <t>英雄21</t>
-  </si>
-  <si>
-    <t>英雄22</t>
-  </si>
-  <si>
-    <t>英雄23</t>
-  </si>
-  <si>
-    <t>英雄24</t>
-  </si>
-  <si>
-    <t>英雄25</t>
-  </si>
-  <si>
-    <t>英雄26</t>
-  </si>
-  <si>
-    <t>英雄27</t>
-  </si>
-  <si>
-    <t>英雄28</t>
-  </si>
-  <si>
-    <t>英雄29</t>
-  </si>
-  <si>
-    <t>英雄30</t>
-  </si>
-  <si>
-    <t>英雄31</t>
-  </si>
-  <si>
-    <t>英雄32</t>
-  </si>
-  <si>
-    <t>英雄33</t>
-  </si>
-  <si>
-    <t>英雄34</t>
-  </si>
-  <si>
-    <t>英雄35</t>
-  </si>
-  <si>
-    <t>英雄36</t>
-  </si>
-  <si>
-    <t>英雄37</t>
-  </si>
-  <si>
-    <t>英雄38</t>
-  </si>
-  <si>
-    <t>英雄39</t>
-  </si>
-  <si>
-    <t>英雄40</t>
-  </si>
-  <si>
-    <t>英雄41</t>
-  </si>
-  <si>
-    <t>英雄42</t>
-  </si>
-  <si>
-    <t>英雄43</t>
-  </si>
-  <si>
-    <t>英雄44</t>
-  </si>
-  <si>
-    <t>英雄45</t>
-  </si>
-  <si>
-    <t>fragmentId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fragmentNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎片道具id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成需要数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fragments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升星所需碎片数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:30:100:120:150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iconUrl</t>
+    <t>Atals/HeadIcon/gongsunzan.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atals/HeadIcon/guanyu.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atals/HeadIcon/lvbu.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atals/HeadIcon/pangtong.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atals/HeadIcon/sunce.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atals/HeadIcon/sunquan.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atals/HeadIcon/zhaoyun.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成需要碎片数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,7 +713,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -695,8 +723,8 @@
     <col min="6" max="8" width="8.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -719,22 +747,22 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -763,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>1</v>
@@ -789,10 +817,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
@@ -801,13 +829,13 @@
         <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="L3" s="1"/>
     </row>
@@ -835,13 +863,17 @@
         <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J4" s="1">
+        <v>200001</v>
+      </c>
       <c r="K4" s="1">
         <v>145</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -867,13 +899,17 @@
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J5" s="1">
+        <v>200002</v>
+      </c>
       <c r="K5" s="1">
         <v>145</v>
       </c>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -899,13 +935,17 @@
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J6" s="1">
+        <v>200003</v>
+      </c>
       <c r="K6" s="1">
         <v>145</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -931,13 +971,17 @@
         <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J7" s="1">
+        <v>200004</v>
+      </c>
       <c r="K7" s="1">
         <v>145</v>
       </c>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -963,13 +1007,17 @@
         <v>4</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J8" s="1">
+        <v>200005</v>
+      </c>
       <c r="K8" s="1">
         <v>145</v>
       </c>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -995,13 +1043,17 @@
         <v>4</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J9" s="1">
+        <v>200006</v>
+      </c>
       <c r="K9" s="1">
         <v>145</v>
       </c>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1027,13 +1079,17 @@
         <v>4</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J10" s="1">
+        <v>200007</v>
+      </c>
       <c r="K10" s="1">
         <v>145</v>
       </c>
-      <c r="L10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1059,13 +1115,17 @@
         <v>4</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J11" s="1">
+        <v>200008</v>
+      </c>
       <c r="K11" s="1">
         <v>145</v>
       </c>
-      <c r="L11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1091,20 +1151,24 @@
         <v>4</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J12" s="1">
+        <v>200009</v>
+      </c>
       <c r="K12" s="1">
         <v>145</v>
       </c>
-      <c r="L12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>100010</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -1123,20 +1187,24 @@
         <v>4</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J13" s="1">
+        <v>200010</v>
+      </c>
       <c r="K13" s="1">
         <v>145</v>
       </c>
-      <c r="L13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>100011</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -1155,20 +1223,24 @@
         <v>4</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J14" s="1">
+        <v>200011</v>
+      </c>
       <c r="K14" s="1">
         <v>145</v>
       </c>
-      <c r="L14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>100012</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -1187,20 +1259,24 @@
         <v>4</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J15" s="1">
+        <v>200012</v>
+      </c>
       <c r="K15" s="1">
         <v>145</v>
       </c>
-      <c r="L15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>100013</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -1219,20 +1295,24 @@
         <v>4</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J16" s="1">
+        <v>200013</v>
+      </c>
       <c r="K16" s="1">
         <v>145</v>
       </c>
-      <c r="L16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>100014</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
@@ -1251,20 +1331,24 @@
         <v>4</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J17" s="1">
+        <v>200014</v>
+      </c>
       <c r="K17" s="1">
         <v>145</v>
       </c>
-      <c r="L17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>100015</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -1283,20 +1367,24 @@
         <v>4</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J18" s="1">
+        <v>200015</v>
+      </c>
       <c r="K18" s="1">
         <v>145</v>
       </c>
-      <c r="L18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>100016</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -1315,20 +1403,24 @@
         <v>3</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J19" s="1">
+        <v>200016</v>
+      </c>
       <c r="K19" s="1">
         <v>145</v>
       </c>
-      <c r="L19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>100017</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
@@ -1347,20 +1439,24 @@
         <v>3</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J20" s="1">
+        <v>200017</v>
+      </c>
       <c r="K20" s="1">
         <v>145</v>
       </c>
-      <c r="L20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>100018</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
@@ -1379,20 +1475,24 @@
         <v>3</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J21" s="1">
+        <v>200018</v>
+      </c>
       <c r="K21" s="1">
         <v>45</v>
       </c>
-      <c r="L21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>100019</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
@@ -1411,20 +1511,24 @@
         <v>3</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J22" s="1">
+        <v>200019</v>
+      </c>
       <c r="K22" s="1">
         <v>45</v>
       </c>
-      <c r="L22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>100020</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
@@ -1443,20 +1547,24 @@
         <v>3</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J23" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J23" s="1">
+        <v>200020</v>
+      </c>
       <c r="K23" s="1">
         <v>45</v>
       </c>
-      <c r="L23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>100021</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
@@ -1475,20 +1583,24 @@
         <v>3</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J24" s="1">
+        <v>200021</v>
+      </c>
       <c r="K24" s="1">
         <v>45</v>
       </c>
-      <c r="L24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>100022</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
@@ -1507,20 +1619,24 @@
         <v>3</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J25" s="1">
+        <v>200022</v>
+      </c>
       <c r="K25" s="1">
         <v>45</v>
       </c>
-      <c r="L25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>100023</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
@@ -1539,20 +1655,24 @@
         <v>3</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J26" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J26" s="1">
+        <v>200023</v>
+      </c>
       <c r="K26" s="1">
         <v>45</v>
       </c>
-      <c r="L26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>100024</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
@@ -1571,20 +1691,24 @@
         <v>3</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J27" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J27" s="1">
+        <v>200024</v>
+      </c>
       <c r="K27" s="1">
         <v>45</v>
       </c>
-      <c r="L27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>100025</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
@@ -1603,20 +1727,24 @@
         <v>3</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J28" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J28" s="1">
+        <v>200025</v>
+      </c>
       <c r="K28" s="1">
         <v>45</v>
       </c>
-      <c r="L28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>100026</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
@@ -1635,20 +1763,24 @@
         <v>3</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J29" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J29" s="1">
+        <v>200026</v>
+      </c>
       <c r="K29" s="1">
         <v>45</v>
       </c>
-      <c r="L29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>100027</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
@@ -1667,20 +1799,24 @@
         <v>3</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J30" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J30" s="1">
+        <v>200027</v>
+      </c>
       <c r="K30" s="1">
         <v>45</v>
       </c>
-      <c r="L30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>100028</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
@@ -1699,20 +1835,24 @@
         <v>3</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J31" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J31" s="1">
+        <v>200028</v>
+      </c>
       <c r="K31" s="1">
         <v>45</v>
       </c>
-      <c r="L31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>100029</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
@@ -1731,20 +1871,24 @@
         <v>3</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J32" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J32" s="1">
+        <v>200029</v>
+      </c>
       <c r="K32" s="1">
         <v>45</v>
       </c>
-      <c r="L32" s="1"/>
+      <c r="L32" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>100030</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
@@ -1763,20 +1907,24 @@
         <v>3</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J33" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J33" s="1">
+        <v>200030</v>
+      </c>
       <c r="K33" s="1">
         <v>45</v>
       </c>
-      <c r="L33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>100031</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
@@ -1795,20 +1943,24 @@
         <v>2</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J34" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J34" s="1">
+        <v>200031</v>
+      </c>
       <c r="K34" s="1">
         <v>15</v>
       </c>
-      <c r="L34" s="1"/>
+      <c r="L34" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>100032</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
@@ -1827,20 +1979,24 @@
         <v>2</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J35" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J35" s="1">
+        <v>200032</v>
+      </c>
       <c r="K35" s="1">
         <v>15</v>
       </c>
-      <c r="L35" s="1"/>
+      <c r="L35" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>100033</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
@@ -1859,20 +2015,24 @@
         <v>2</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J36" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J36" s="1">
+        <v>200033</v>
+      </c>
       <c r="K36" s="1">
         <v>15</v>
       </c>
-      <c r="L36" s="1"/>
+      <c r="L36" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>100034</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
@@ -1891,20 +2051,24 @@
         <v>2</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J37" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J37" s="1">
+        <v>200034</v>
+      </c>
       <c r="K37" s="1">
         <v>15</v>
       </c>
-      <c r="L37" s="1"/>
+      <c r="L37" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>100035</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
@@ -1923,20 +2087,24 @@
         <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J38" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J38" s="1">
+        <v>200035</v>
+      </c>
       <c r="K38" s="1">
         <v>15</v>
       </c>
-      <c r="L38" s="1"/>
+      <c r="L38" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>100036</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
@@ -1955,20 +2123,24 @@
         <v>2</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J39" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J39" s="1">
+        <v>200036</v>
+      </c>
       <c r="K39" s="1">
         <v>15</v>
       </c>
-      <c r="L39" s="1"/>
+      <c r="L39" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>100037</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
@@ -1987,20 +2159,24 @@
         <v>2</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J40" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J40" s="1">
+        <v>200037</v>
+      </c>
       <c r="K40" s="1">
         <v>15</v>
       </c>
-      <c r="L40" s="1"/>
+      <c r="L40" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>100038</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
@@ -2019,20 +2195,24 @@
         <v>2</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J41" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J41" s="1">
+        <v>200038</v>
+      </c>
       <c r="K41" s="1">
         <v>15</v>
       </c>
-      <c r="L41" s="1"/>
+      <c r="L41" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>100039</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
@@ -2051,20 +2231,24 @@
         <v>2</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J42" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J42" s="1">
+        <v>200039</v>
+      </c>
       <c r="K42" s="1">
         <v>15</v>
       </c>
-      <c r="L42" s="1"/>
+      <c r="L42" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>100040</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
@@ -2083,20 +2267,24 @@
         <v>1</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J43" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J43" s="1">
+        <v>200040</v>
+      </c>
       <c r="K43" s="1">
         <v>15</v>
       </c>
-      <c r="L43" s="1"/>
+      <c r="L43" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>100041</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
@@ -2115,20 +2303,24 @@
         <v>1</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J44" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J44" s="1">
+        <v>200041</v>
+      </c>
       <c r="K44" s="1">
         <v>15</v>
       </c>
-      <c r="L44" s="1"/>
+      <c r="L44" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>100042</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
@@ -2147,20 +2339,24 @@
         <v>1</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J45" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J45" s="1">
+        <v>200042</v>
+      </c>
       <c r="K45" s="1">
         <v>15</v>
       </c>
-      <c r="L45" s="1"/>
+      <c r="L45" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>100043</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
@@ -2179,20 +2375,24 @@
         <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J46" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J46" s="1">
+        <v>200043</v>
+      </c>
       <c r="K46" s="1">
         <v>15</v>
       </c>
-      <c r="L46" s="1"/>
+      <c r="L46" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>100044</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
@@ -2211,20 +2411,24 @@
         <v>1</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J47" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J47" s="1">
+        <v>200044</v>
+      </c>
       <c r="K47" s="1">
         <v>15</v>
       </c>
-      <c r="L47" s="1"/>
+      <c r="L47" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>100045</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
@@ -2243,13 +2447,17 @@
         <v>1</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J48" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="J48" s="1">
+        <v>200045</v>
+      </c>
       <c r="K48" s="1">
         <v>15</v>
       </c>
-      <c r="L48" s="1"/>
+      <c r="L48" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/Card.xlsx
+++ b/Excel/Card.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="123">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +90,6 @@
     <t>稀有度</t>
   </si>
   <si>
-    <t>Villager_B_Boy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>battleUnit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,6 +320,142 @@
   <si>
     <t>合成需要碎片数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero2</t>
+  </si>
+  <si>
+    <t>hero3</t>
+  </si>
+  <si>
+    <t>hero4</t>
+  </si>
+  <si>
+    <t>hero5</t>
+  </si>
+  <si>
+    <t>hero6</t>
+  </si>
+  <si>
+    <t>hero7</t>
+  </si>
+  <si>
+    <t>hero8</t>
+  </si>
+  <si>
+    <t>hero9</t>
+  </si>
+  <si>
+    <t>hero10</t>
+  </si>
+  <si>
+    <t>hero11</t>
+  </si>
+  <si>
+    <t>hero12</t>
+  </si>
+  <si>
+    <t>hero13</t>
+  </si>
+  <si>
+    <t>hero14</t>
+  </si>
+  <si>
+    <t>hero15</t>
+  </si>
+  <si>
+    <t>hero16</t>
+  </si>
+  <si>
+    <t>hero17</t>
+  </si>
+  <si>
+    <t>hero18</t>
+  </si>
+  <si>
+    <t>hero19</t>
+  </si>
+  <si>
+    <t>hero20</t>
+  </si>
+  <si>
+    <t>hero21</t>
+  </si>
+  <si>
+    <t>hero22</t>
+  </si>
+  <si>
+    <t>hero23</t>
+  </si>
+  <si>
+    <t>hero24</t>
+  </si>
+  <si>
+    <t>hero25</t>
+  </si>
+  <si>
+    <t>hero26</t>
+  </si>
+  <si>
+    <t>hero27</t>
+  </si>
+  <si>
+    <t>hero28</t>
+  </si>
+  <si>
+    <t>hero29</t>
+  </si>
+  <si>
+    <t>hero30</t>
+  </si>
+  <si>
+    <t>hero31</t>
+  </si>
+  <si>
+    <t>hero32</t>
+  </si>
+  <si>
+    <t>hero33</t>
+  </si>
+  <si>
+    <t>hero34</t>
+  </si>
+  <si>
+    <t>hero35</t>
+  </si>
+  <si>
+    <t>hero36</t>
+  </si>
+  <si>
+    <t>hero37</t>
+  </si>
+  <si>
+    <t>hero38</t>
+  </si>
+  <si>
+    <t>hero39</t>
+  </si>
+  <si>
+    <t>hero40</t>
+  </si>
+  <si>
+    <t>hero41</t>
+  </si>
+  <si>
+    <t>hero42</t>
+  </si>
+  <si>
+    <t>hero43</t>
+  </si>
+  <si>
+    <t>hero44</t>
+  </si>
+  <si>
+    <t>hero45</t>
   </si>
 </sst>
 </file>
@@ -713,7 +845,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D4" sqref="D4:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -738,31 +870,31 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -791,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>1</v>
@@ -814,28 +946,28 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L3" s="1"/>
     </row>
@@ -844,11 +976,11 @@
         <v>100001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -863,7 +995,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4" s="1">
         <v>200001</v>
@@ -872,7 +1004,7 @@
         <v>145</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -880,11 +1012,11 @@
         <v>100002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -899,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" s="1">
         <v>200002</v>
@@ -908,7 +1040,7 @@
         <v>145</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -916,11 +1048,11 @@
         <v>100003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -935,7 +1067,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J6" s="1">
         <v>200003</v>
@@ -944,7 +1076,7 @@
         <v>145</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -952,11 +1084,11 @@
         <v>100004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -971,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" s="1">
         <v>200004</v>
@@ -980,7 +1112,7 @@
         <v>145</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -988,11 +1120,11 @@
         <v>100005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -1007,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" s="1">
         <v>200005</v>
@@ -1016,7 +1148,7 @@
         <v>145</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1024,11 +1156,11 @@
         <v>100006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -1043,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J9" s="1">
         <v>200006</v>
@@ -1052,7 +1184,7 @@
         <v>145</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1060,11 +1192,11 @@
         <v>100007</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
@@ -1079,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" s="1">
         <v>200007</v>
@@ -1088,7 +1220,7 @@
         <v>145</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1096,11 +1228,11 @@
         <v>100008</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
@@ -1115,7 +1247,7 @@
         <v>4</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J11" s="1">
         <v>200008</v>
@@ -1124,7 +1256,7 @@
         <v>145</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1132,11 +1264,11 @@
         <v>100009</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
@@ -1151,7 +1283,7 @@
         <v>4</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" s="1">
         <v>200009</v>
@@ -1160,7 +1292,7 @@
         <v>145</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1168,11 +1300,11 @@
         <v>100010</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="E13" s="1">
         <v>3</v>
@@ -1187,7 +1319,7 @@
         <v>4</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" s="1">
         <v>200010</v>
@@ -1196,7 +1328,7 @@
         <v>145</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1204,11 +1336,11 @@
         <v>100011</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E14" s="1">
         <v>3</v>
@@ -1223,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" s="1">
         <v>200011</v>
@@ -1232,7 +1364,7 @@
         <v>145</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1240,11 +1372,11 @@
         <v>100012</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="E15" s="1">
         <v>3</v>
@@ -1259,7 +1391,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J15" s="1">
         <v>200012</v>
@@ -1268,7 +1400,7 @@
         <v>145</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1276,11 +1408,11 @@
         <v>100013</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="E16" s="1">
         <v>3</v>
@@ -1295,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J16" s="1">
         <v>200013</v>
@@ -1304,7 +1436,7 @@
         <v>145</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1312,11 +1444,11 @@
         <v>100014</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1">
         <v>3</v>
@@ -1331,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J17" s="1">
         <v>200014</v>
@@ -1340,7 +1472,7 @@
         <v>145</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1348,11 +1480,11 @@
         <v>100015</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="E18" s="1">
         <v>3</v>
@@ -1367,7 +1499,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J18" s="1">
         <v>200015</v>
@@ -1376,7 +1508,7 @@
         <v>145</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1384,11 +1516,11 @@
         <v>100016</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -1403,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J19" s="1">
         <v>200016</v>
@@ -1412,7 +1544,7 @@
         <v>145</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1420,11 +1552,11 @@
         <v>100017</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -1439,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J20" s="1">
         <v>200017</v>
@@ -1448,7 +1580,7 @@
         <v>145</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1456,11 +1588,11 @@
         <v>100018</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -1475,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J21" s="1">
         <v>200018</v>
@@ -1484,7 +1616,7 @@
         <v>45</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1492,11 +1624,11 @@
         <v>100019</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
@@ -1511,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J22" s="1">
         <v>200019</v>
@@ -1520,7 +1652,7 @@
         <v>45</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1528,11 +1660,11 @@
         <v>100020</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -1547,7 +1679,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J23" s="1">
         <v>200020</v>
@@ -1556,7 +1688,7 @@
         <v>45</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1564,11 +1696,11 @@
         <v>100021</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -1583,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J24" s="1">
         <v>200021</v>
@@ -1592,7 +1724,7 @@
         <v>45</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1600,11 +1732,11 @@
         <v>100022</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
@@ -1619,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J25" s="1">
         <v>200022</v>
@@ -1628,7 +1760,7 @@
         <v>45</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1636,11 +1768,11 @@
         <v>100023</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
@@ -1655,7 +1787,7 @@
         <v>3</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J26" s="1">
         <v>200023</v>
@@ -1664,7 +1796,7 @@
         <v>45</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1672,11 +1804,11 @@
         <v>100024</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -1691,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J27" s="1">
         <v>200024</v>
@@ -1700,7 +1832,7 @@
         <v>45</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1708,11 +1840,11 @@
         <v>100025</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -1727,7 +1859,7 @@
         <v>3</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J28" s="1">
         <v>200025</v>
@@ -1736,7 +1868,7 @@
         <v>45</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1744,11 +1876,11 @@
         <v>100026</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -1763,7 +1895,7 @@
         <v>3</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J29" s="1">
         <v>200026</v>
@@ -1772,7 +1904,7 @@
         <v>45</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1780,11 +1912,11 @@
         <v>100027</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
@@ -1799,7 +1931,7 @@
         <v>3</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J30" s="1">
         <v>200027</v>
@@ -1808,7 +1940,7 @@
         <v>45</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1816,11 +1948,11 @@
         <v>100028</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
@@ -1835,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J31" s="1">
         <v>200028</v>
@@ -1844,7 +1976,7 @@
         <v>45</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1852,11 +1984,11 @@
         <v>100029</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
@@ -1871,7 +2003,7 @@
         <v>3</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J32" s="1">
         <v>200029</v>
@@ -1880,7 +2012,7 @@
         <v>45</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1888,11 +2020,11 @@
         <v>100030</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
@@ -1907,7 +2039,7 @@
         <v>3</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J33" s="1">
         <v>200030</v>
@@ -1916,7 +2048,7 @@
         <v>45</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1924,11 +2056,11 @@
         <v>100031</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -1943,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J34" s="1">
         <v>200031</v>
@@ -1952,7 +2084,7 @@
         <v>15</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1960,11 +2092,11 @@
         <v>100032</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -1979,7 +2111,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J35" s="1">
         <v>200032</v>
@@ -1988,7 +2120,7 @@
         <v>15</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1996,11 +2128,11 @@
         <v>100033</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -2015,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J36" s="1">
         <v>200033</v>
@@ -2024,7 +2156,7 @@
         <v>15</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -2032,11 +2164,11 @@
         <v>100034</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -2051,7 +2183,7 @@
         <v>2</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J37" s="1">
         <v>200034</v>
@@ -2060,7 +2192,7 @@
         <v>15</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -2068,11 +2200,11 @@
         <v>100035</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -2087,7 +2219,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J38" s="1">
         <v>200035</v>
@@ -2096,7 +2228,7 @@
         <v>15</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -2104,11 +2236,11 @@
         <v>100036</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -2123,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J39" s="1">
         <v>200036</v>
@@ -2132,7 +2264,7 @@
         <v>15</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -2140,11 +2272,11 @@
         <v>100037</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -2159,7 +2291,7 @@
         <v>2</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J40" s="1">
         <v>200037</v>
@@ -2168,7 +2300,7 @@
         <v>15</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -2176,11 +2308,11 @@
         <v>100038</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -2195,7 +2327,7 @@
         <v>2</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J41" s="1">
         <v>200038</v>
@@ -2204,7 +2336,7 @@
         <v>15</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -2212,11 +2344,11 @@
         <v>100039</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -2231,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J42" s="1">
         <v>200039</v>
@@ -2240,7 +2372,7 @@
         <v>15</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -2248,11 +2380,11 @@
         <v>100040</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -2267,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J43" s="1">
         <v>200040</v>
@@ -2276,7 +2408,7 @@
         <v>15</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -2284,11 +2416,11 @@
         <v>100041</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -2303,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J44" s="1">
         <v>200041</v>
@@ -2312,7 +2444,7 @@
         <v>15</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -2320,11 +2452,11 @@
         <v>100042</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -2339,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J45" s="1">
         <v>200042</v>
@@ -2348,7 +2480,7 @@
         <v>15</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -2356,11 +2488,11 @@
         <v>100043</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -2375,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J46" s="1">
         <v>200043</v>
@@ -2384,7 +2516,7 @@
         <v>15</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -2392,11 +2524,11 @@
         <v>100044</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -2411,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J47" s="1">
         <v>200044</v>
@@ -2420,7 +2552,7 @@
         <v>15</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -2428,11 +2560,11 @@
         <v>100045</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -2447,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J48" s="1">
         <v>200045</v>
@@ -2456,7 +2588,7 @@
         <v>15</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
